--- a/src/main/webapp/owog/template/支撑班一周一标杆录入模板.xlsx
+++ b/src/main/webapp/owog/template/支撑班一周一标杆录入模板.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
-  <si>
-    <t>时间周期</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+  <si>
+    <t>周期开始日期</t>
+  </si>
+  <si>
+    <t>周期结束日期</t>
   </si>
   <si>
     <t>姓名</t>
@@ -87,7 +90,7 @@
     <t>一票否决指标-网络大面积故障管控、网络割接管控缺失（包括工单管控反馈、易信通报要求等）</t>
   </si>
   <si>
-    <t>格式范例：2018年01月29日至02月04日</t>
+    <t>格式范例：2018-02-11</t>
   </si>
   <si>
     <t>张三</t>
@@ -120,14 +123,36 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式范例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2018-02-05</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -146,12 +171,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -171,6 +190,26 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,11 +259,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,20 +582,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="17" customWidth="1"/>
+    <col min="1" max="23" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="27" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
+    <row r="1" spans="1:23" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -576,8 +618,9 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="156" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="156" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,80 +687,86 @@
       <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:23" ht="29.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>26</v>
+      <c r="T3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
